--- a/results/model_details.xlsx
+++ b/results/model_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,8 +484,6 @@
       <c r="D2" t="n">
         <v>256</v>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -506,8 +504,6 @@
       <c r="D3" t="n">
         <v>256</v>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -528,8 +524,6 @@
       <c r="D4" t="n">
         <v>256</v>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -550,8 +544,6 @@
       <c r="D5" t="n">
         <v>256</v>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -572,8 +564,6 @@
       <c r="D6" t="n">
         <v>256</v>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -594,8 +584,6 @@
       <c r="D7" t="n">
         <v>256</v>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -616,8 +604,6 @@
       <c r="D8" t="n">
         <v>256</v>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -638,8 +624,28 @@
       <c r="D9" t="n">
         <v>256</v>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LR_7</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RGB filtered lst+ndvi scaled</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Water stations</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>256</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/model_details.xlsx
+++ b/results/model_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,8 +644,32 @@
       <c r="D10" t="n">
         <v>256</v>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CNN_Simpler_model</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>34 lst+ndvi scaled</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Water stations</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>256</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/model_details.xlsx
+++ b/results/model_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,6 +671,32 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CNN_Simpler_model</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>34 lst+ndvi scaled</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Water stations</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>256</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/model_details.xlsx
+++ b/results/model_details.xlsx
@@ -1,151 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Model Details" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
-  <si>
-    <t>Model Name</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>Resolution</t>
-  </si>
-  <si>
-    <t>Batch size</t>
-  </si>
-  <si>
-    <t>Epochs</t>
-  </si>
-  <si>
-    <t>LR_1</t>
-  </si>
-  <si>
-    <t>RGB filtered lst</t>
-  </si>
-  <si>
-    <t>Water stations</t>
-  </si>
-  <si>
-    <t>LR_2</t>
-  </si>
-  <si>
-    <t>RGB filtered lst+ndvi</t>
-  </si>
-  <si>
-    <t>LR_3</t>
-  </si>
-  <si>
-    <t>Physics-based LR</t>
-  </si>
-  <si>
-    <t>RGB filtered lst scaled</t>
-  </si>
-  <si>
-    <t>LR_4</t>
-  </si>
-  <si>
-    <t>LR_5</t>
-  </si>
-  <si>
-    <t>RGB filtered lst+ndvi scaled</t>
-  </si>
-  <si>
-    <t>Physics-based LR_2</t>
-  </si>
-  <si>
-    <t>LR_6</t>
-  </si>
-  <si>
-    <t>LR_7</t>
-  </si>
-  <si>
-    <t>CNN_Simpler_model</t>
-  </si>
-  <si>
-    <t>34 lst+ndvi scaled</t>
-  </si>
-  <si>
-    <t>CNN_Simpler2</t>
-  </si>
-  <si>
-    <t>13 lst+ndvi scaled</t>
-  </si>
-  <si>
-    <t>wt</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -157,42 +62,98 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -480,227 +441,420 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col width="19.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Model Name</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Resolution</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Batch size</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>LR_sample_wise1</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>18 lst+ndvi scaled</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>wt interpolated</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>CNN_pixel_wise1</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>18 lst+ndvi</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>wt interpolated</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4">
-        <v>256</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="F3" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4">
-        <v>256</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>LR_sample_wise2</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>18 lst+ndvi scaled</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>CNN_pixel_wise2</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>18 lst+ndvi</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>256</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4">
-        <v>256</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4">
-        <v>256</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4">
-        <v>256</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4">
-        <v>256</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>LR_sample_wise3</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>18 lst scaled</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>CNN_pixel_wise3</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>18 lst</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4">
-        <v>256</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4">
-        <v>256</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4">
-        <v>256</v>
-      </c>
-      <c r="E11" s="4">
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>CNN_pixel_wise3</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>18 lst</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F8" s="2" t="n">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4">
-        <v>256</v>
-      </c>
-      <c r="E12" s="4">
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>CNN_image_wise1</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>18 lst+ndvi</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F9" s="2" t="n">
         <v>10</v>
       </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>CNN_image_wise2</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>18 lst</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>CNN_image_wise3</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>18 lst</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>wt interpolated</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>256</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>CNN_image_wise4</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>18 lst+ndvi</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>wt interpolated</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>256</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CNN_pixel_wise3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>18 lst</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>256</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LR_img_wise1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RGB filtered lst+ndvi scaled</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Physics-based LR1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>18 lst scaled</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LR_img_wise2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>RGB filtered lst scaled</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>256</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/model_details.xlsx
+++ b/results/model_details.xlsx
@@ -1,125 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
-  <si>
-    <t>Model Name</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>Resolution</t>
-  </si>
-  <si>
-    <t>Batch size</t>
-  </si>
-  <si>
-    <t>Epochs</t>
-  </si>
-  <si>
-    <t>LR_1</t>
-  </si>
-  <si>
-    <t>RGB filtered lst</t>
-  </si>
-  <si>
-    <t>Water stations</t>
-  </si>
-  <si>
-    <t>LR_2</t>
-  </si>
-  <si>
-    <t>RGB filtered lst+ndvi</t>
-  </si>
-  <si>
-    <t>LR_3</t>
-  </si>
-  <si>
-    <t>Physics-based LR</t>
-  </si>
-  <si>
-    <t>RGB filtered lst scaled</t>
-  </si>
-  <si>
-    <t>LR_4</t>
-  </si>
-  <si>
-    <t>LR_5</t>
-  </si>
-  <si>
-    <t>RGB filtered lst+ndvi scaled</t>
-  </si>
-  <si>
-    <t>Physics-based LR_2</t>
-  </si>
-  <si>
-    <t>LR_6</t>
-  </si>
-  <si>
-    <t>LR_7</t>
-  </si>
-  <si>
-    <t>CNN_Simpler_model</t>
-  </si>
-  <si>
-    <t>34 lst+ndvi scaled</t>
-  </si>
-  <si>
-    <t>CNN_Simpler2</t>
-  </si>
-  <si>
-    <t>13 lst+ndvi scaled</t>
-  </si>
-  <si>
-    <t>wt</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -157,42 +77,104 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -480,227 +462,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Resolution</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Batch size</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>LR_1</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>RGB filtered lst</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>Water stations</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="E2" s="7" t="n"/>
+      <c r="F2" s="7" t="n"/>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>LR_2</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>RGB filtered lst+ndvi</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>Water stations</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="E3" s="7" t="n"/>
+      <c r="F3" s="7" t="n"/>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>LR_3</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>RGB filtered lst+ndvi</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>Water stations</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="E4" s="7" t="n"/>
+      <c r="F4" s="7" t="n"/>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>Physics-based LR</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>RGB filtered lst scaled</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>Water stations</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>LR_4</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>RGB filtered lst scaled</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>Water stations</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>LR_5</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>RGB filtered lst+ndvi scaled</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>Water stations</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Physics-based LR_2</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>RGB filtered lst</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>Water stations</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>LR_6</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>RGB filtered lst+ndvi</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>Water stations</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="E9" s="7" t="n"/>
+      <c r="F9" s="7" t="n"/>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>LR_7</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>RGB filtered lst+ndvi scaled</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>Water stations</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>CNN_Simpler_model</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>34 lst+ndvi scaled</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>Water stations</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="E11" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4">
-        <v>256</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="F11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4">
-        <v>256</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>CNN_Simpler2</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>13 lst+ndvi scaled</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>256</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4">
-        <v>256</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4">
-        <v>256</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4">
-        <v>256</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4">
-        <v>256</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4">
-        <v>256</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4">
-        <v>256</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4">
-        <v>256</v>
-      </c>
-      <c r="E11" s="4">
-        <v>4</v>
-      </c>
-      <c r="F11" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4">
-        <v>256</v>
-      </c>
-      <c r="E12" s="4">
-        <v>4</v>
-      </c>
-      <c r="F12" s="4">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LR_8</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>RGB filtered lst+ndvi scaled</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LR_8</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RGB filtered lst+ndvi scaled</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Water stations</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>256</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
